--- a/Issues/Issuetracker.xlsx
+++ b/Issues/Issuetracker.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="19500" windowHeight="10350"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +95,27 @@
   </si>
   <si>
     <t>Added code to insert suproduct for all clients</t>
+  </si>
+  <si>
+    <t>14/04/2018</t>
+  </si>
+  <si>
+    <t>On select of client product list is overriding</t>
+  </si>
+  <si>
+    <t>havent clear the table</t>
+  </si>
+  <si>
+    <t>jsp</t>
+  </si>
+  <si>
+    <t>addressbook</t>
+  </si>
+  <si>
+    <t>Added code to clear the table</t>
+  </si>
+  <si>
+    <t>16/04/2018</t>
   </si>
 </sst>
 </file>
@@ -104,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -125,6 +144,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -132,9 +159,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,60 +237,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -211,52 +245,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,8 +486,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,6 +510,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,15 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +558,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,164 +581,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1044,13 +1063,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
     <col min="3" max="4" width="48.5714285714286" style="1" customWidth="1"/>
@@ -1086,9 +1105,6 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1184,6 +1200,38 @@
       </c>
       <c r="J5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1196,36 +1244,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>